--- a/FEP_MRI_data.xlsx
+++ b/FEP_MRI_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10312"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grahamblackman/Dropbox/FEP MRI Abnormality Meta-Analysis/FEP_MRI_MetaAnal_R/FEP_MRI_MetaAnal_github/FEP_MRI_anormality_Meta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grahamblackman/Library/CloudStorage/Dropbox/FEP MRI Abnormality Meta-Analysis/Publication/JAMA_Psych/Resubmission/FEP_MRI_anormality_Meta-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05AD201-2C4E-E543-A528-859971C14A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33B2945-F2AC-C142-8BCA-5157C728744A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="20860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="141">
   <si>
     <t xml:space="preserve">author </t>
   </si>
@@ -353,9 +353,6 @@
     <t>30</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>none</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -463,14 +460,6 @@
     <t>South America</t>
   </si>
   <si>
-    <t>39</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>22</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>sam</t>
   </si>
   <si>
@@ -481,6 +470,9 @@
   </si>
   <si>
     <t>Guasp</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
 </sst>
 </file>
@@ -741,7 +733,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -996,9 +988,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5291,10 +5280,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5717,8 +5702,8 @@
   <dimension ref="A1:CA24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CD9" sqref="CD9"/>
+      <pane xSplit="2" topLeftCell="AA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH12" sqref="AH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5993,13 +5978,13 @@
         <v>2019</v>
       </c>
       <c r="D2" s="8" t="str">
-        <f t="shared" ref="D2:D13" si="0">CONCATENATE(B2," ",C2)</f>
+        <f t="shared" ref="D2:D14" si="0">CONCATENATE(B2," ",C2)</f>
         <v>Andrea 2019</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="115" t="s">
+      <c r="F2" s="114" t="s">
         <v>81</v>
       </c>
       <c r="G2" s="10" t="s">
@@ -6033,7 +6018,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R2" s="36">
         <v>0</v>
@@ -6050,76 +6035,76 @@
       <c r="V2" s="36">
         <v>0</v>
       </c>
-      <c r="W2" s="116" t="s">
-        <v>84</v>
-      </c>
-      <c r="X2" s="116" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y2" s="116" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z2" s="116" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA2" s="116" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB2" s="116" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC2" s="116" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD2" s="116" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE2" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF2" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG2" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH2" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI2" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ2" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK2" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL2" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM2" s="118" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN2" s="118" t="s">
-        <v>84</v>
-      </c>
-      <c r="AO2" s="118" t="s">
-        <v>84</v>
-      </c>
-      <c r="AP2" s="118" t="s">
-        <v>84</v>
-      </c>
-      <c r="AQ2" s="118" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR2" s="118" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS2" s="118" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT2" s="118" t="s">
+      <c r="W2" s="115" t="s">
+        <v>84</v>
+      </c>
+      <c r="X2" s="115" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y2" s="115" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z2" s="115" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA2" s="115" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB2" s="115" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC2" s="115" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD2" s="115" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE2" s="116" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF2" s="116" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG2" s="116" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH2" s="116" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI2" s="116" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ2" s="116" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK2" s="116" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL2" s="116" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM2" s="117" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN2" s="117" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO2" s="117" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP2" s="117" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ2" s="117" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR2" s="117" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS2" s="117" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT2" s="117" t="s">
         <v>84</v>
       </c>
       <c r="AU2" s="73" t="s">
@@ -6137,37 +6122,37 @@
       <c r="AY2" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="AZ2" s="105">
+      <c r="AZ2" s="104">
         <v>20</v>
       </c>
-      <c r="BA2" s="105">
-        <v>1</v>
-      </c>
-      <c r="BB2" s="105" t="s">
-        <v>84</v>
-      </c>
-      <c r="BC2" s="105" t="s">
-        <v>84</v>
-      </c>
-      <c r="BD2" s="106" t="s">
+      <c r="BA2" s="104">
+        <v>1</v>
+      </c>
+      <c r="BB2" s="104" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC2" s="104" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD2" s="105" t="s">
         <v>84</v>
       </c>
       <c r="BE2" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="BF2" s="119" t="s">
-        <v>84</v>
-      </c>
-      <c r="BG2" s="96" t="s">
+      <c r="BF2" s="118" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG2" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="BH2" s="96">
-        <v>1</v>
-      </c>
-      <c r="BI2" s="96" t="s">
+      <c r="BH2" s="95">
+        <v>1</v>
+      </c>
+      <c r="BI2" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="BJ2" s="120" t="s">
+      <c r="BJ2" s="119" t="s">
         <v>84</v>
       </c>
       <c r="BK2" s="47" t="s">
@@ -6183,7 +6168,7 @@
         <v>84</v>
       </c>
       <c r="BO2" s="23" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="BP2" s="24" t="s">
         <v>87</v>
@@ -6374,19 +6359,19 @@
       <c r="AY3" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="AZ3" s="105">
+      <c r="AZ3" s="104">
         <v>30</v>
       </c>
-      <c r="BA3" s="105">
-        <v>1</v>
-      </c>
-      <c r="BB3" s="105">
+      <c r="BA3" s="104">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="104">
         <v>8</v>
       </c>
-      <c r="BC3" s="105">
+      <c r="BC3" s="104">
         <v>9</v>
       </c>
-      <c r="BD3" s="106" t="s">
+      <c r="BD3" s="105" t="s">
         <v>92</v>
       </c>
       <c r="BE3" s="61" t="s">
@@ -6395,16 +6380,16 @@
       <c r="BF3" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="BG3" s="96" t="s">
+      <c r="BG3" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="BH3" s="96">
-        <v>1</v>
-      </c>
-      <c r="BI3" s="100" t="s">
-        <v>84</v>
-      </c>
-      <c r="BJ3" s="120" t="s">
+      <c r="BH3" s="95">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="99" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ3" s="119" t="s">
         <v>84</v>
       </c>
       <c r="BK3" s="47" t="s">
@@ -6612,19 +6597,19 @@
       <c r="AY4" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="AZ4" s="107">
+      <c r="AZ4" s="106">
         <v>25</v>
       </c>
-      <c r="BA4" s="107">
-        <v>1</v>
-      </c>
-      <c r="BB4" s="123">
+      <c r="BA4" s="106">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="122">
         <v>68</v>
       </c>
-      <c r="BC4" s="123">
+      <c r="BC4" s="122">
         <v>42</v>
       </c>
-      <c r="BD4" s="123">
+      <c r="BD4" s="122">
         <v>25</v>
       </c>
       <c r="BE4" s="47">
@@ -6633,16 +6618,16 @@
       <c r="BF4" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="BG4" s="96" t="s">
+      <c r="BG4" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="BH4" s="96">
-        <v>1</v>
-      </c>
-      <c r="BI4" s="100" t="s">
-        <v>84</v>
-      </c>
-      <c r="BJ4" s="120" t="s">
+      <c r="BH4" s="95">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="99" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ4" s="119" t="s">
         <v>84</v>
       </c>
       <c r="BK4" s="47" t="s">
@@ -6850,37 +6835,37 @@
       <c r="AY5" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="AZ5" s="105">
+      <c r="AZ5" s="104">
         <v>26</v>
       </c>
-      <c r="BA5" s="105">
-        <v>1</v>
-      </c>
-      <c r="BB5" s="105">
+      <c r="BA5" s="104">
+        <v>1</v>
+      </c>
+      <c r="BB5" s="104">
         <v>37</v>
       </c>
-      <c r="BC5" s="105">
+      <c r="BC5" s="104">
         <v>40</v>
       </c>
-      <c r="BD5" s="106" t="s">
+      <c r="BD5" s="105" t="s">
         <v>101</v>
       </c>
       <c r="BE5" s="61" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="BF5" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="BG5" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG5" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="BH5" s="96">
-        <v>1</v>
-      </c>
-      <c r="BI5" s="100" t="s">
-        <v>84</v>
-      </c>
-      <c r="BJ5" s="120" t="s">
+      <c r="BH5" s="95">
+        <v>1</v>
+      </c>
+      <c r="BI5" s="99" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ5" s="119" t="s">
         <v>84</v>
       </c>
       <c r="BK5" s="47" t="s">
@@ -6938,13 +6923,13 @@
     </row>
     <row r="6" spans="1:79" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="47">
         <v>2017</v>
       </c>
       <c r="D6" s="48" t="str">
-        <f>CONCATENATE(B6," ",C6)</f>
+        <f t="shared" si="0"/>
         <v>Falkenberg (c) 2017</v>
       </c>
       <c r="E6" s="52" t="s">
@@ -6972,10 +6957,10 @@
         <v>235</v>
       </c>
       <c r="M6" s="52">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N6" s="47">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O6" s="57">
         <v>14</v>
@@ -7077,10 +7062,10 @@
         <v>66</v>
       </c>
       <c r="AV6" s="47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW6" s="47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX6" s="61" t="s">
         <v>48</v>
@@ -7088,37 +7073,37 @@
       <c r="AY6" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="AZ6" s="105">
+      <c r="AZ6" s="104">
         <v>24</v>
       </c>
-      <c r="BA6" s="105">
-        <v>1</v>
-      </c>
-      <c r="BB6" s="108">
+      <c r="BA6" s="104">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="107">
         <v>79</v>
       </c>
-      <c r="BC6" s="108">
+      <c r="BC6" s="107">
         <v>37</v>
       </c>
-      <c r="BD6" s="106" t="s">
-        <v>106</v>
+      <c r="BD6" s="105" t="s">
+        <v>105</v>
       </c>
       <c r="BE6" s="61" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="BF6" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="BG6" s="98" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG6" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="BH6" s="96">
-        <v>1</v>
-      </c>
-      <c r="BI6" s="100" t="s">
-        <v>84</v>
-      </c>
-      <c r="BJ6" s="120" t="s">
+      <c r="BH6" s="95">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="99" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ6" s="119" t="s">
         <v>84</v>
       </c>
       <c r="BK6" s="47" t="s">
@@ -7176,10 +7161,10 @@
     </row>
     <row r="7" spans="1:79" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="51" t="s">
         <v>107</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>108</v>
       </c>
       <c r="D7" s="48" t="str">
         <f t="shared" si="0"/>
@@ -7263,52 +7248,52 @@
       <c r="AD7" s="31">
         <v>1</v>
       </c>
-      <c r="AE7" s="121" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF7" s="121" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG7" s="121" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH7" s="121" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI7" s="121" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ7" s="121" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK7" s="121" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL7" s="121" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM7" s="122" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN7" s="122" t="s">
-        <v>84</v>
-      </c>
-      <c r="AO7" s="122" t="s">
-        <v>84</v>
-      </c>
-      <c r="AP7" s="122" t="s">
-        <v>84</v>
-      </c>
-      <c r="AQ7" s="122" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR7" s="122" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS7" s="122" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT7" s="122" t="s">
+      <c r="AE7" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF7" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG7" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH7" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI7" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ7" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK7" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL7" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM7" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN7" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO7" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP7" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ7" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR7" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS7" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT7" s="121" t="s">
         <v>84</v>
       </c>
       <c r="AU7" s="55">
@@ -7326,37 +7311,37 @@
       <c r="AY7" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="AZ7" s="105">
-        <v>35</v>
-      </c>
-      <c r="BA7" s="105">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="105">
+      <c r="AZ7" s="104">
+        <v>59</v>
+      </c>
+      <c r="BA7" s="104">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="104">
         <v>42</v>
       </c>
-      <c r="BC7" s="105">
+      <c r="BC7" s="104">
         <v>195</v>
       </c>
-      <c r="BD7" s="106" t="s">
-        <v>109</v>
+      <c r="BD7" s="105" t="s">
+        <v>108</v>
       </c>
       <c r="BE7" s="61" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="BF7" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="BG7" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG7" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="BH7" s="96">
-        <v>1</v>
-      </c>
-      <c r="BI7" s="100" t="s">
-        <v>84</v>
-      </c>
-      <c r="BJ7" s="120" t="s">
+      <c r="BH7" s="95">
+        <v>1</v>
+      </c>
+      <c r="BI7" s="99" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ7" s="119" t="s">
         <v>84</v>
       </c>
       <c r="BK7" s="47" t="s">
@@ -7369,14 +7354,14 @@
         <v>94</v>
       </c>
       <c r="BN7" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BO7" s="23" t="str">
         <f>IF(Table13[[#This Row],[scan_field]]=3,"1","0")</f>
         <v>0</v>
       </c>
       <c r="BP7" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BQ7" s="24">
         <v>1</v>
@@ -7414,10 +7399,10 @@
     </row>
     <row r="8" spans="1:79" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="51" t="s">
         <v>112</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>113</v>
       </c>
       <c r="D8" s="48" t="str">
         <f t="shared" si="0"/>
@@ -7559,42 +7544,42 @@
         <v>84</v>
       </c>
       <c r="AX8" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY8" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ8" s="104">
+        <v>24</v>
+      </c>
+      <c r="BA8" s="104">
+        <v>1</v>
+      </c>
+      <c r="BB8" s="104">
+        <v>30</v>
+      </c>
+      <c r="BC8" s="104">
+        <v>22</v>
+      </c>
+      <c r="BD8" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="AY8" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="AZ8" s="105">
-        <v>24</v>
-      </c>
-      <c r="BA8" s="105">
-        <v>1</v>
-      </c>
-      <c r="BB8" s="105">
-        <v>30</v>
-      </c>
-      <c r="BC8" s="105">
-        <v>22</v>
-      </c>
-      <c r="BD8" s="106" t="s">
+      <c r="BE8" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="BE8" s="61" t="s">
-        <v>116</v>
-      </c>
       <c r="BF8" s="61" t="s">
-        <v>103</v>
-      </c>
-      <c r="BG8" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="BG8" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="BH8" s="96">
-        <v>1</v>
-      </c>
-      <c r="BI8" s="100" t="s">
-        <v>84</v>
-      </c>
-      <c r="BJ8" s="120" t="s">
+      <c r="BH8" s="95">
+        <v>1</v>
+      </c>
+      <c r="BI8" s="99" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ8" s="119" t="s">
         <v>84</v>
       </c>
       <c r="BK8" s="47" t="s">
@@ -7614,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="BP8" s="62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BQ8" s="62">
         <v>0</v>
@@ -7653,23 +7638,23 @@
     <row r="9" spans="1:79" s="27" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="64"/>
       <c r="B9" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="70" t="s">
         <v>118</v>
-      </c>
-      <c r="C9" s="70" t="s">
-        <v>119</v>
       </c>
       <c r="D9" s="71" t="str">
         <f t="shared" si="0"/>
         <v>Lubman 2002</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F9" s="55" t="s">
         <v>80</v>
       </c>
       <c r="G9" s="72" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H9" s="71" t="s">
         <v>80</v>
@@ -7693,7 +7678,7 @@
         <v>13</v>
       </c>
       <c r="O9" s="37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P9" s="37">
         <v>2</v>
@@ -7708,7 +7693,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="37">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U9" s="37">
         <v>1</v>
@@ -7803,37 +7788,37 @@
       <c r="AY9" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="AZ9" s="109">
+      <c r="AZ9" s="108">
         <v>22</v>
       </c>
-      <c r="BA9" s="109">
-        <v>1</v>
-      </c>
-      <c r="BB9" s="109">
+      <c r="BA9" s="108">
+        <v>1</v>
+      </c>
+      <c r="BB9" s="108">
         <v>48</v>
       </c>
-      <c r="BC9" s="109">
+      <c r="BC9" s="108">
         <v>36</v>
       </c>
-      <c r="BD9" s="110" t="s">
-        <v>122</v>
+      <c r="BD9" s="109" t="s">
+        <v>121</v>
       </c>
       <c r="BE9" s="92" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="BF9" s="91" t="s">
-        <v>103</v>
-      </c>
-      <c r="BG9" s="99" t="s">
+        <v>102</v>
+      </c>
+      <c r="BG9" s="98" t="s">
         <v>80</v>
       </c>
-      <c r="BH9" s="99">
-        <v>1</v>
-      </c>
-      <c r="BI9" s="100" t="s">
-        <v>84</v>
-      </c>
-      <c r="BJ9" s="120" t="s">
+      <c r="BH9" s="98">
+        <v>1</v>
+      </c>
+      <c r="BI9" s="99" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ9" s="119" t="s">
         <v>84</v>
       </c>
       <c r="BK9" s="55" t="s">
@@ -7843,7 +7828,7 @@
         <v>0</v>
       </c>
       <c r="BM9" s="91" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BN9" s="87">
         <v>1.5</v>
@@ -7891,10 +7876,10 @@
     </row>
     <row r="10" spans="1:79" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="51" t="s">
         <v>124</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>125</v>
       </c>
       <c r="D10" s="48" t="str">
         <f t="shared" si="0"/>
@@ -7907,7 +7892,7 @@
         <v>80</v>
       </c>
       <c r="G10" s="53" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H10" s="48" t="s">
         <v>80</v>
@@ -7916,10 +7901,10 @@
         <v>80</v>
       </c>
       <c r="J10" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L10" s="55">
         <v>20</v>
@@ -7927,8 +7912,8 @@
       <c r="M10" s="56">
         <v>10</v>
       </c>
-      <c r="N10" s="55" t="s">
-        <v>84</v>
+      <c r="N10" s="55">
+        <v>2</v>
       </c>
       <c r="O10" s="37">
         <v>0</v>
@@ -7964,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="Z10" s="32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA10" s="32">
         <v>0</v>
@@ -8012,7 +7997,7 @@
         <v>0</v>
       </c>
       <c r="AP10" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ10" s="34">
         <v>0</v>
@@ -8041,37 +8026,37 @@
       <c r="AY10" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="AZ10" s="108" t="s">
+      <c r="AZ10" s="107" t="s">
+        <v>125</v>
+      </c>
+      <c r="BA10" s="107">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="107">
+        <v>14</v>
+      </c>
+      <c r="BC10" s="107">
+        <v>44</v>
+      </c>
+      <c r="BD10" s="105" t="s">
         <v>126</v>
       </c>
-      <c r="BA10" s="108">
-        <v>0</v>
-      </c>
-      <c r="BB10" s="108">
-        <v>14</v>
-      </c>
-      <c r="BC10" s="108">
-        <v>44</v>
-      </c>
-      <c r="BD10" s="106" t="s">
+      <c r="BE10" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="BE10" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF10" s="119" t="s">
-        <v>84</v>
-      </c>
-      <c r="BG10" s="96" t="s">
+      <c r="BF10" s="118" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG10" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="BH10" s="96">
-        <v>1</v>
-      </c>
-      <c r="BI10" s="96" t="s">
+      <c r="BH10" s="95">
+        <v>1</v>
+      </c>
+      <c r="BI10" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="BJ10" s="97" t="s">
+      <c r="BJ10" s="96" t="s">
         <v>80</v>
       </c>
       <c r="BK10" s="47" t="s">
@@ -8091,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="BP10" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BQ10" s="24">
         <v>0</v>
@@ -8128,15 +8113,15 @@
       </c>
     </row>
     <row r="11" spans="1:79" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="124"/>
+      <c r="A11" s="123"/>
       <c r="B11" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C11" s="47">
         <v>2013</v>
       </c>
       <c r="D11" s="48" t="str">
-        <f>CONCATENATE(B11," ",C11)</f>
+        <f t="shared" si="0"/>
         <v>Sommer 2013</v>
       </c>
       <c r="E11" s="55" t="s">
@@ -8280,20 +8265,20 @@
       <c r="AY11" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="AZ11" s="108" t="s">
-        <v>84</v>
-      </c>
-      <c r="BA11" s="108">
-        <v>1</v>
-      </c>
-      <c r="BB11" s="108" t="s">
-        <v>84</v>
-      </c>
-      <c r="BC11" s="108">
+      <c r="AZ11" s="107" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA11" s="107">
+        <v>1</v>
+      </c>
+      <c r="BB11" s="107" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC11" s="107">
         <v>315</v>
       </c>
-      <c r="BD11" s="106" t="s">
-        <v>131</v>
+      <c r="BD11" s="105" t="s">
+        <v>130</v>
       </c>
       <c r="BE11" s="61" t="s">
         <v>84</v>
@@ -8301,16 +8286,16 @@
       <c r="BF11" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="BG11" s="98" t="s">
+      <c r="BG11" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="BH11" s="96">
-        <v>0</v>
-      </c>
-      <c r="BI11" s="96" t="s">
+      <c r="BH11" s="95">
+        <v>0</v>
+      </c>
+      <c r="BI11" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="BJ11" s="100" t="s">
+      <c r="BJ11" s="99" t="s">
         <v>81</v>
       </c>
       <c r="BK11" s="47" t="s">
@@ -8368,7 +8353,7 @@
     </row>
     <row r="12" spans="1:79" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="47">
         <v>2014</v>
@@ -8455,53 +8440,53 @@
       <c r="AD12" s="32">
         <v>0</v>
       </c>
-      <c r="AE12" s="40">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="40">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="40">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="40">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="40">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="40">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="40">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="40">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="34">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="34">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="34">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="34">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="34">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="34">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="34">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="34">
-        <v>0</v>
+      <c r="AE12" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF12" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG12" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH12" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI12" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ12" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK12" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL12" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM12" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN12" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO12" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP12" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ12" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR12" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS12" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT12" s="121" t="s">
+        <v>84</v>
       </c>
       <c r="AU12" s="73" t="s">
         <v>84</v>
@@ -8518,37 +8503,37 @@
       <c r="AY12" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="AZ12" s="105">
+      <c r="AZ12" s="104">
         <v>21</v>
       </c>
-      <c r="BA12" s="105">
-        <v>1</v>
-      </c>
-      <c r="BB12" s="105" t="s">
-        <v>84</v>
-      </c>
-      <c r="BC12" s="105" t="s">
-        <v>84</v>
-      </c>
-      <c r="BD12" s="106" t="s">
+      <c r="BA12" s="104">
+        <v>1</v>
+      </c>
+      <c r="BB12" s="104" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC12" s="104" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD12" s="105" t="s">
         <v>84</v>
       </c>
       <c r="BE12" s="61" t="s">
         <v>84</v>
       </c>
       <c r="BF12" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="BG12" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG12" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="BH12" s="96">
-        <v>1</v>
-      </c>
-      <c r="BI12" s="96" t="s">
+      <c r="BH12" s="95">
+        <v>1</v>
+      </c>
+      <c r="BI12" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="BJ12" s="101" t="s">
+      <c r="BJ12" s="100" t="s">
         <v>80</v>
       </c>
       <c r="BK12" s="47" t="s">
@@ -8564,10 +8549,10 @@
         <v>84</v>
       </c>
       <c r="BO12" s="23" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="BP12" s="62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="BQ12" s="62">
         <v>1</v>
@@ -8605,17 +8590,17 @@
     </row>
     <row r="13" spans="1:79" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="51" t="s">
         <v>134</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>135</v>
       </c>
       <c r="D13" s="48" t="str">
         <f t="shared" si="0"/>
         <v>Zanetti 2008</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F13" s="73" t="s">
         <v>80</v>
@@ -8750,42 +8735,42 @@
         <v>84</v>
       </c>
       <c r="AX13" s="61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY13" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="AZ13" s="105">
+        <v>104</v>
+      </c>
+      <c r="AZ13" s="104">
         <v>29</v>
       </c>
-      <c r="BA13" s="105">
-        <v>1</v>
-      </c>
-      <c r="BB13" s="105">
+      <c r="BA13" s="104">
+        <v>1</v>
+      </c>
+      <c r="BB13" s="104">
         <v>58</v>
       </c>
-      <c r="BC13" s="105">
+      <c r="BC13" s="104">
         <v>48</v>
       </c>
-      <c r="BD13" s="106" t="s">
+      <c r="BD13" s="105" t="s">
         <v>101</v>
       </c>
       <c r="BE13" s="61" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="BF13" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="BG13" s="96" t="s">
+        <v>92</v>
+      </c>
+      <c r="BG13" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="BH13" s="96">
-        <v>1</v>
-      </c>
-      <c r="BI13" s="96" t="s">
+      <c r="BH13" s="95">
+        <v>1</v>
+      </c>
+      <c r="BI13" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="BJ13" s="101" t="s">
+      <c r="BJ13" s="100" t="s">
         <v>80</v>
       </c>
       <c r="BK13" s="47" t="s">
@@ -8795,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="BM13" s="61" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="BN13" s="23">
         <v>1.5</v>
@@ -8843,19 +8828,19 @@
     </row>
     <row r="14" spans="1:79" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="28" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C14" s="74">
         <v>2021</v>
       </c>
       <c r="D14" s="75" t="str">
-        <f>CONCATENATE(B14," ",C14)</f>
+        <f t="shared" si="0"/>
         <v>Guasp 2021</v>
       </c>
       <c r="E14" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="114" t="s">
+      <c r="F14" s="113" t="s">
         <v>81</v>
       </c>
       <c r="G14" s="77" t="s">
@@ -8990,40 +8975,40 @@
       <c r="AX14" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="AY14" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="AZ14" s="111">
+      <c r="AY14" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ14" s="110">
         <v>30</v>
       </c>
-      <c r="BA14" s="111">
-        <v>1</v>
-      </c>
-      <c r="BB14" s="112">
+      <c r="BA14" s="110">
+        <v>1</v>
+      </c>
+      <c r="BB14" s="111">
         <v>44</v>
       </c>
-      <c r="BC14" s="112" t="s">
-        <v>84</v>
-      </c>
-      <c r="BD14" s="113" t="s">
-        <v>84</v>
-      </c>
-      <c r="BE14" s="95" t="s">
-        <v>141</v>
-      </c>
-      <c r="BF14" s="95" t="s">
-        <v>140</v>
-      </c>
-      <c r="BG14" s="102" t="s">
+      <c r="BC14" s="111" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD14" s="112" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE14" s="94" t="s">
+        <v>137</v>
+      </c>
+      <c r="BF14" s="94" t="s">
+        <v>137</v>
+      </c>
+      <c r="BG14" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="BH14" s="103">
-        <v>0</v>
-      </c>
-      <c r="BI14" s="103" t="s">
+      <c r="BH14" s="102">
+        <v>0</v>
+      </c>
+      <c r="BI14" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="BJ14" s="104" t="s">
+      <c r="BJ14" s="103" t="s">
         <v>80</v>
       </c>
       <c r="BK14" s="74" t="s">
@@ -9032,14 +9017,14 @@
       <c r="BL14" s="74">
         <v>0</v>
       </c>
-      <c r="BM14" s="95" t="s">
+      <c r="BM14" s="94" t="s">
         <v>94</v>
       </c>
       <c r="BN14" s="69" t="s">
         <v>84</v>
       </c>
       <c r="BO14" s="23" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="BP14" s="29" t="s">
         <v>84</v>
